--- a/asdasd.xlsx
+++ b/asdasd.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ФИО</t>
   </si>
@@ -151,8 +151,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">26 </t>
+    <t>Самара</t>
+  </si>
+  <si>
+    <r>
+      <t>Потапова</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -162,24 +174,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>февраля</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 1995</t>
-    </r>
-  </si>
-  <si>
-    <t>Самара</t>
-  </si>
-  <si>
-    <r>
-      <t>Потапова</t>
+      <t>Наталия</t>
     </r>
     <r>
       <rPr>
@@ -198,63 +193,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Наталия</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Анатольевна</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>марта</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 1971</t>
-    </r>
-  </si>
-  <si>
     <t>Номер телефона</t>
   </si>
   <si>
     <t>+7 (939) 7091119</t>
   </si>
   <si>
-    <t>+7 (927) 7118728</t>
-  </si>
-  <si>
-    <t>+7 (937) 6483548</t>
+    <t>8 (927) 7118728</t>
+  </si>
+  <si>
+    <t>26 02 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1971 20 марта </t>
+  </si>
+  <si>
+    <t>Ростов-на-Дону, ул. Стрелковая 31</t>
   </si>
 </sst>
 </file>
@@ -609,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -623,7 +581,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -631,27 +589,27 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>79376483548</v>
       </c>
     </row>
   </sheetData>

--- a/asdasd.xlsx
+++ b/asdasd.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>ФИО</t>
   </si>
@@ -151,68 +151,19 @@
     </r>
   </si>
   <si>
-    <t>Самара</t>
-  </si>
-  <si>
-    <r>
-      <t>Потапова</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Наталия</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Анатольевна</t>
-    </r>
-  </si>
-  <si>
     <t>Номер телефона</t>
   </si>
   <si>
-    <t>+7 (939) 7091119</t>
-  </si>
-  <si>
     <t>8 (927) 7118728</t>
   </si>
   <si>
     <t>26 02 1995</t>
   </si>
   <si>
-    <t xml:space="preserve">1971 20 марта </t>
-  </si>
-  <si>
     <t>Ростов-на-Дону, ул. Стрелковая 31</t>
+  </si>
+  <si>
+    <t>8 863 277 81 90</t>
   </si>
 </sst>
 </file>
@@ -545,7 +496,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -581,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -589,27 +540,27 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>79376483548</v>
       </c>
     </row>
   </sheetData>
